--- a/tesi_camilla/casi_MarioU/Res_dataframes.xlsx
+++ b/tesi_camilla/casi_MarioU/Res_dataframes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/casi_MarioU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0701E5F-2AC9-2246-8A4F-D5A3DF4875A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E0E73-1E6F-E848-9A7E-FA88467CEF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{5F7E2D77-E5A9-C740-AF60-8F2711F45543}"/>
+    <workbookView xWindow="900" yWindow="2200" windowWidth="27640" windowHeight="15800" xr2:uid="{5F7E2D77-E5A9-C740-AF60-8F2711F45543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,8 +1809,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F18:M18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:M19">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1831,26 +1851,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:M18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:M19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F28:M28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
